--- a/input_parameter.xlsx
+++ b/input_parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b605f118ad36e084/FHNW/intern_SimProg/test_simprog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{6DA2A0BF-A077-4220-9EAC-603438CCD898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B19F3C8A-7AD6-4DE8-A465-83C248B69F6D}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{6DA2A0BF-A077-4220-9EAC-603438CCD898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9382707A-116C-4EC5-B1E4-1E89A285EB6D}"/>
   <bookViews>
-    <workbookView xWindow="-16425" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16425" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="201">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -239,9 +239,6 @@
     <t>carport</t>
   </si>
   <si>
-    <t>Ordner für die Datenablage</t>
-  </si>
-  <si>
     <t>SP_Sim</t>
   </si>
   <si>
@@ -509,15 +506,6 @@
     <t>Aus dem PV Input_File übernommen</t>
   </si>
   <si>
-    <t>Daten_Input\Beispiel_Lastgang_einlesen.xlsx</t>
-  </si>
-  <si>
-    <t>Daten_Input\Beispiel_LKW_Fahrdaten.xlsx</t>
-  </si>
-  <si>
-    <t>Daten_Input\Beispiel_PV_Input_aus_Polysun.xlsx</t>
-  </si>
-  <si>
     <t>A_Bedarf</t>
   </si>
   <si>
@@ -642,6 +630,24 @@
   </si>
   <si>
     <t>soc_fuer_wechsel</t>
+  </si>
+  <si>
+    <t>Ordner für die einzulesenden Daten</t>
+  </si>
+  <si>
+    <t>Daten_Input</t>
+  </si>
+  <si>
+    <t>r_DIR</t>
+  </si>
+  <si>
+    <t>Beispiel_Lastgang_einlesen.xlsx</t>
+  </si>
+  <si>
+    <t>Beispiel_PV_Input_aus_Polysun.xlsx</t>
+  </si>
+  <si>
+    <t>Beispiel_LKW_Fahrdaten.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1201,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="62.4">
       <c r="A1" s="39" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="28.8">
@@ -1205,22 +1211,22 @@
     </row>
     <row r="3" spans="1:1" ht="28.8">
       <c r="A3" s="35" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="37" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1284,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>7</v>
@@ -1289,10 +1295,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>7</v>
@@ -1306,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>7</v>
@@ -1317,10 +1323,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>7</v>
@@ -1362,7 +1368,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>7</v>
@@ -1373,16 +1379,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1395,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42DFEB6-5036-45B9-BE08-6F41ED8602E3}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.109375" defaultRowHeight="14.4"/>
@@ -1427,10 +1433,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3</v>
@@ -1439,10 +1445,14 @@
     <row r="3" spans="1:4" s="12" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="11"/>
+        <v>195</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" ht="28.8">
       <c r="A4" s="10" t="s">
@@ -1452,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>5</v>
@@ -1463,10 +1473,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>13</v>
@@ -1480,7 +1490,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>35</v>
@@ -1525,7 +1535,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -1534,7 +1544,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1637,58 +1647,58 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="29">
         <v>0.25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="29">
         <v>0.83333333333333337</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="29">
         <v>0.25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="29">
         <v>0.54166666666666663</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1733,10 +1743,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="34" t="str">
         <f>Input!C5</f>
@@ -1754,7 +1764,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="21">
         <v>0</v>
@@ -1763,7 +1773,7 @@
         <v>51</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1">
@@ -1856,7 +1866,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C9" s="21">
         <v>300</v>
@@ -1870,10 +1880,10 @@
     </row>
     <row r="10" spans="1:5" s="12" customFormat="1" ht="43.2">
       <c r="A10" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>7</v>
@@ -1882,32 +1892,32 @@
         <v>19</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="22">
         <v>0</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="12" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="25">
         <v>0.01</v>
@@ -1916,15 +1926,15 @@
         <v>19</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="12" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>7</v>
@@ -1933,58 +1943,58 @@
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C14" s="22">
         <v>0</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="12" customFormat="1">
       <c r="A15" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="C15" s="22">
         <v>4.6399999999999997</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="12" customFormat="1">
       <c r="A16" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="22">
         <v>70</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2030,10 +2040,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="34" t="str">
         <f>Input!C9</f>
@@ -2058,7 +2068,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1">
@@ -2066,24 +2076,24 @@
         <v>41</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="22">
         <v>136</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1" ht="86.4">
       <c r="A5" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C5" s="21">
         <v>0</v>
@@ -2092,15 +2102,15 @@
         <v>19</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="23">
         <v>0.1</v>
@@ -2109,15 +2119,15 @@
         <v>19</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -2126,15 +2136,15 @@
         <v>19</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="24">
         <v>0.1</v>
@@ -2143,32 +2153,32 @@
         <v>19</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C9" s="21">
         <v>50</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="12" customFormat="1" ht="43.2">
       <c r="A10" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>7</v>
@@ -2177,15 +2187,15 @@
         <v>19</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C11" s="22">
         <v>0</v>
@@ -2194,15 +2204,15 @@
         <v>25</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="12" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="25">
         <v>0.01</v>
@@ -2211,12 +2221,12 @@
         <v>19</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="12" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="24">
@@ -2226,7 +2236,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2271,10 +2281,10 @@
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="C2" s="15">
         <f>Input!C6</f>
@@ -2289,24 +2299,24 @@
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="17">
         <v>42</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="16">
@@ -2316,64 +2326,64 @@
         <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="40">
         <v>0.63</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A6" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C6" s="18">
         <v>90</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="18">
         <v>100</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="19">
         <v>0</v>
@@ -2382,15 +2392,15 @@
         <v>19</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="19">
         <v>0.1</v>
@@ -2399,15 +2409,15 @@
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A10" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="19">
         <v>0.05</v>
@@ -2416,7 +2426,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14071F-F3CE-4A0E-9532-DB104DCFD8B6}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2461,10 +2471,10 @@
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="C2" s="15">
         <f>Input!C7</f>
@@ -2479,24 +2489,24 @@
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="17">
         <v>42</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="16">
@@ -2506,49 +2516,49 @@
         <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="40">
         <v>0.63</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A6" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C6" s="18">
         <v>90</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A7" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -2557,15 +2567,15 @@
         <v>19</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="19">
         <v>0.1</v>
@@ -2574,15 +2584,15 @@
         <v>19</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A9" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="19">
         <v>0.1</v>
@@ -2591,7 +2601,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +2650,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="30" t="str">
         <f>Input!C8</f>
@@ -2655,10 +2665,10 @@
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1">
       <c r="A3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="C3" s="21">
         <v>10</v>
@@ -2667,64 +2677,64 @@
         <v>19</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="22">
         <v>68</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="C5" s="31">
         <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C6" s="32">
         <v>22</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1">
       <c r="A7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="C7" s="23">
         <v>0.25</v>
@@ -2733,15 +2743,15 @@
         <v>19</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="C8" s="23">
         <v>0.5</v>
@@ -2750,7 +2760,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/input_parameter.xlsx
+++ b/input_parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b605f118ad36e084/FHNW/intern_SimProg/test_simprog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{6DA2A0BF-A077-4220-9EAC-603438CCD898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9382707A-116C-4EC5-B1E4-1E89A285EB6D}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{6DA2A0BF-A077-4220-9EAC-603438CCD898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31D39C28-5272-4CEE-80F8-930EBD4C802F}"/>
   <bookViews>
-    <workbookView xWindow="-16425" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12375" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>Ausgabedatei</t>
   </si>
   <si>
-    <t>Pfad und Dateiname (mit Dateityp bsp. .xlsx) für den einzulesenden Lastgang angeben</t>
-  </si>
-  <si>
     <t>PV Dach Süd</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Mobilität</t>
   </si>
   <si>
-    <t>Fahrdaten von LKWs für die Berechnung der Daten für ELKWs</t>
-  </si>
-  <si>
     <t>r_LKW</t>
   </si>
   <si>
@@ -557,9 +551,6 @@
     <t>Blauer Text sind flexible Parameter für die Systemoptimierung (zb. Modus Batteriespeicher)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pfad und Dateiname (mit Dateityp bsp. .xlsx) für die PV_Anlage (Die Fassade ist auf Blatt 2, </t>
-  </si>
-  <si>
     <t xml:space="preserve">Einmalvergütung Funktion </t>
   </si>
   <si>
@@ -648,6 +639,15 @@
   </si>
   <si>
     <t>Beispiel_LKW_Fahrdaten.xlsx</t>
+  </si>
+  <si>
+    <t>Pfad und Dateiname (mit Dateityp bsp. .xlsx) für den einzulesenden Lastgang angeben. Eingelesen wird das vierte Blatt im Excel.</t>
+  </si>
+  <si>
+    <t>Pfad und Dateiname (mit Dateityp bsp. .xlsx) für die PV_Anlage (Die Fassade ist auf Blatt 2, Dach Süd auf Blatt 3, Dach Ost/West auf Blatt 4 und der "Carport" auf Blatt 5)</t>
+  </si>
+  <si>
+    <t>Fahrdaten von LKWs für die Berechnung des Profils und Verbrauch für ELKWs</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -835,9 +835,6 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -874,9 +871,6 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -900,6 +894,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1200,33 +1206,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="62.4">
-      <c r="A1" s="39" t="s">
-        <v>183</v>
+      <c r="A1" s="37" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="28.8">
-      <c r="A3" s="35" t="s">
-        <v>184</v>
+      <c r="A3" s="33" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="36" t="s">
-        <v>168</v>
+      <c r="A4" s="34" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="37" t="s">
-        <v>169</v>
+      <c r="A5" s="35" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="38" t="s">
-        <v>166</v>
+      <c r="A6" s="36" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1281,30 +1287,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1312,83 +1318,83 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="26">
+        <v>38</v>
+      </c>
+      <c r="C6" s="25">
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="26">
+        <v>37</v>
+      </c>
+      <c r="C7" s="25">
         <v>0</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1408,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.109375" defaultRowHeight="14.4"/>
@@ -1428,72 +1434,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="28.8">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" s="42" customFormat="1" ht="28.8">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="12" customFormat="1">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:4" s="42" customFormat="1">
+      <c r="A3" s="13"/>
       <c r="B3" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="42" customFormat="1" ht="43.2">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D4" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="42" customFormat="1" ht="43.2">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D5" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="42" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="12" customFormat="1" ht="28.8">
-      <c r="A4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="12" customFormat="1" ht="28.8">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="12" customFormat="1">
-      <c r="A6" s="10" t="s">
+      <c r="D6" s="41" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1527,7 +1533,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1535,170 +1541,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="26">
+        <v>165</v>
+      </c>
+      <c r="B2" s="25">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="27">
+        <v>16</v>
+      </c>
+      <c r="B3" s="26">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="27">
+        <v>15</v>
+      </c>
+      <c r="B4" s="26">
         <v>7.5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="27">
+        <v>14</v>
+      </c>
+      <c r="B5" s="26">
         <v>0.16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="27">
+        <v>20</v>
+      </c>
+      <c r="B6" s="26">
         <v>0.14000000000000001</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="27">
+        <v>21</v>
+      </c>
+      <c r="B7" s="26">
         <v>0.09</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="27">
+        <v>22</v>
+      </c>
+      <c r="B8" s="26">
         <v>0.5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="28">
+        <v>26</v>
+      </c>
+      <c r="B9" s="27">
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="29">
+        <v>67</v>
+      </c>
+      <c r="B10" s="28">
         <v>0.25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="29">
+        <v>69</v>
+      </c>
+      <c r="B11" s="28">
         <v>0.83333333333333337</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="29">
+        <v>70</v>
+      </c>
+      <c r="B12" s="28">
         <v>0.25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="29">
+        <v>71</v>
+      </c>
+      <c r="B13" s="28">
         <v>0.54166666666666663</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1743,258 +1749,258 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="34" t="str">
+        <v>112</v>
+      </c>
+      <c r="C2" s="32" t="str">
         <f>Input!C5</f>
         <v>True</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="21">
+        <v>65</v>
+      </c>
+      <c r="C3" s="20">
         <v>0</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="21">
+        <v>51</v>
+      </c>
+      <c r="C4" s="20">
         <v>1206</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>299</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="21">
+        <v>53</v>
+      </c>
+      <c r="C6" s="20">
         <v>213</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="21">
+        <v>54</v>
+      </c>
+      <c r="C7" s="20">
         <v>299</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="21">
+        <v>55</v>
+      </c>
+      <c r="C8" s="20">
         <v>231</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="21">
+        <v>156</v>
+      </c>
+      <c r="C9" s="20">
         <v>300</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="12" customFormat="1" ht="43.2">
       <c r="A10" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>0</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="12" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="25">
+        <v>81</v>
+      </c>
+      <c r="C12" s="24">
         <v>0.01</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="12" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A14" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="22">
+        <v>174</v>
+      </c>
+      <c r="C14" s="21">
         <v>0</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="12" customFormat="1">
       <c r="A15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="21">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="22">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="12" customFormat="1">
       <c r="A16" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="21">
+        <v>70</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="22">
-        <v>70</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2008,7 +2014,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2032,7 +2038,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -2040,203 +2046,203 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="34" t="str">
+        <v>112</v>
+      </c>
+      <c r="C2" s="32" t="str">
         <f>Input!C9</f>
         <v>True</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="21">
-        <v>4</v>
+      <c r="C3" s="20">
+        <v>6</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="22">
+        <v>95</v>
+      </c>
+      <c r="C4" s="21">
         <v>136</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1" ht="86.4">
       <c r="A5" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="21">
+        <v>158</v>
+      </c>
+      <c r="C5" s="20">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="23">
+        <v>101</v>
+      </c>
+      <c r="C6" s="22">
         <v>0.1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1">
       <c r="A7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>0.1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="21">
+        <v>159</v>
+      </c>
+      <c r="C9" s="20">
         <v>50</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="12" customFormat="1" ht="43.2">
       <c r="A10" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="22">
+        <v>178</v>
+      </c>
+      <c r="C11" s="21">
         <v>0</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="12" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="25">
+        <v>81</v>
+      </c>
+      <c r="C12" s="24">
         <v>0.01</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="12" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>0</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2273,7 +2279,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -2281,152 +2287,152 @@
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="15">
         <f>Input!C6</f>
         <v>3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" s="17">
         <v>42</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="16">
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="40">
+      <c r="C5" s="38">
         <v>0.63</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A6" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="18">
         <v>90</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="18">
         <v>100</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" s="19">
         <v>0</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="19">
         <v>0.1</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A10" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="19">
         <v>0.05</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2463,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -2471,137 +2477,137 @@
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="15">
         <f>Input!C7</f>
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" s="17">
         <v>42</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="16">
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="40">
+      <c r="C5" s="38">
         <v>0.63</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A6" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="18">
         <v>90</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A7" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="19">
         <v>0.1</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>193</v>
+        <v>18</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A9" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="19">
         <v>0.1</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2639,7 +2645,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -2647,120 +2653,120 @@
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="30" t="str">
+        <v>112</v>
+      </c>
+      <c r="C2" s="29" t="str">
         <f>Input!C8</f>
         <v>True</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="21">
+        <v>133</v>
+      </c>
+      <c r="C3" s="20">
         <v>10</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>68</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A5" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="31">
+        <v>136</v>
+      </c>
+      <c r="C5" s="30">
         <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="32">
+        <v>155</v>
+      </c>
+      <c r="C6" s="31">
         <v>22</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="23">
+        <v>139</v>
+      </c>
+      <c r="C7" s="22">
         <v>0.25</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="23">
+        <v>141</v>
+      </c>
+      <c r="C8" s="22">
         <v>0.5</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/input_parameter.xlsx
+++ b/input_parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b605f118ad36e084/FHNW/intern_SimProg/test_simprog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{562C7AE4-3F01-4723-9453-ACBBFCFEE68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAD5F44A-E17E-4909-B013-F255A4121525}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{562C7AE4-3F01-4723-9453-ACBBFCFEE68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3B55A98-370D-40E4-AB7C-A69D04C591E1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="214">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -662,9 +662,6 @@
   </si>
   <si>
     <t>PV- Anlagen</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Test_Output_3.xlsx</t>
@@ -1024,6 +1021,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1340,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B919DAA-B456-4E90-ACBD-2393A67E028E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="15"/>
@@ -1431,7 +1432,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>38</v>
@@ -1445,7 +1446,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>39</v>
@@ -1459,7 +1460,7 @@
         <v>142</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>40</v>
@@ -1528,7 +1529,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>15</v>
@@ -2238,7 +2239,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="19">
         <v>1</v>
@@ -2435,7 +2436,7 @@
       </c>
       <c r="C2" s="48">
         <f>Input!C6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>15</v>
@@ -2466,7 +2467,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="50">
         <v>3</v>
@@ -2500,7 +2501,7 @@
         <v>146</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="53">
         <v>90</v>
@@ -2517,7 +2518,7 @@
         <v>145</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="53">
         <v>100</v>
@@ -2534,7 +2535,7 @@
         <v>113</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="54">
         <v>0</v>
@@ -2629,7 +2630,7 @@
       </c>
       <c r="C2" s="14">
         <f>Input!C7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>15</v>
@@ -2638,7 +2639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="11" customFormat="1">
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="30">
       <c r="A3" s="9" t="s">
         <v>105</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>122</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="15">
         <v>3</v>
@@ -2689,12 +2690,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="11" customFormat="1" ht="30">
+    <row r="6" spans="1:5" s="11" customFormat="1" ht="45">
       <c r="A6" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="17">
         <v>90</v>
@@ -2767,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E2DA2E-83FC-4D59-B600-E7B3CE9313B9}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:E8"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -2807,7 +2808,7 @@
       </c>
       <c r="C2" s="27" t="str">
         <f>Input!C8</f>
-        <v>False</v>
+        <v>True</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>15</v>
@@ -2855,7 +2856,7 @@
         <v>127</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
@@ -2867,7 +2868,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="11" customFormat="1">
+    <row r="6" spans="1:5" s="11" customFormat="1" ht="30">
       <c r="A6" s="9" t="s">
         <v>128</v>
       </c>

--- a/input_parameter.xlsx
+++ b/input_parameter.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b605f118ad36e084/FHNW/intern_SimProg/test_simprog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{562C7AE4-3F01-4723-9453-ACBBFCFEE68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3B55A98-370D-40E4-AB7C-A69D04C591E1}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{562C7AE4-3F01-4723-9453-ACBBFCFEE68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB25C9B-F44E-428A-9FB9-A3F1E0CE5C63}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
     <sheet name="Input" sheetId="2" r:id="rId2"/>
-    <sheet name="Paths" sheetId="3" r:id="rId3"/>
+    <sheet name="Pfad" sheetId="3" r:id="rId3"/>
     <sheet name="Tarife" sheetId="4" r:id="rId4"/>
     <sheet name="Photovoltaik" sheetId="5" r:id="rId5"/>
     <sheet name="Speicher" sheetId="6" r:id="rId6"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="215">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -271,9 +271,6 @@
     <t>CHF</t>
   </si>
   <si>
-    <t>Eingabe der Betriebskosten als Anteil der Investition</t>
-  </si>
-  <si>
     <t>Einmalvergütung</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>Faktor_vergünstigung</t>
   </si>
   <si>
-    <t>Faktor Vergünstigung der Investitionskosten</t>
-  </si>
-  <si>
     <t>Anzahl ELKW</t>
   </si>
   <si>
@@ -385,30 +379,15 @@
     <t>Ladeleistung an DC</t>
   </si>
   <si>
-    <t>SOC Reserve</t>
-  </si>
-  <si>
-    <t>SOC Limit: Ruhezeit</t>
-  </si>
-  <si>
-    <t>SOC Limit: Laden an Raststätte</t>
-  </si>
-  <si>
     <t>ladeleistungDC</t>
   </si>
   <si>
     <t>schnellladung</t>
   </si>
   <si>
-    <t>Falls Reserve vorhanden sein muss, und der SOC nicht tiefer sinken darf</t>
-  </si>
-  <si>
     <t>Ladelimite von Netzladen ausserhalb der Betriebszeiten (Status = 0)</t>
   </si>
   <si>
-    <t>Unter diesem SOC wird unterwegs an einer Raststätte 30min geladen mit Schnellladeleistung</t>
-  </si>
-  <si>
     <t>Unter diesem SOC wird unterwegs an einer Raststätte ein Speicherpaket gewechselt (Dauer 5min)</t>
   </si>
   <si>
@@ -583,9 +562,6 @@
     <t>Fahrdaten von LKWs für die Berechnung des Fahrprofils und Energiebedarf der ELKWs</t>
   </si>
   <si>
-    <t>Tairf Schnellladen extern</t>
-  </si>
-  <si>
     <t>Total (Summe aus allen Flächen)</t>
   </si>
   <si>
@@ -649,12 +625,6 @@
     <t>Lastgang für Peak-Shaving Analyse</t>
   </si>
   <si>
-    <t>Eingabe Path</t>
-  </si>
-  <si>
-    <t>Eingabe Page</t>
-  </si>
-  <si>
     <t>Pfad und Dateiname (mit Dateityp bsp. .xlsx) für den einzulesenden Lastgang angeben. Eingelesen wird das entsprechende Blatt im Excel (gezählt von links nach rechts).</t>
   </si>
   <si>
@@ -673,19 +643,52 @@
     <t>Bestimmt die gesamte Kapazität eines Fahrzeugs</t>
   </si>
   <si>
-    <t>Maximale Ladeleistung an den internen Ladestationen, pro ELKW wird eine DC-Ladestation einbezogen</t>
-  </si>
-  <si>
     <t>Wenn der ELKW unterwegs ist und der SOC unter der grenze_soc_raststätte_laden ist.</t>
   </si>
   <si>
-    <t>Falls Reserve vorhanden sein muss, und der SOC nicht tiefer sinken darf.</t>
-  </si>
-  <si>
     <t>Maximale Ladeleistung an den internen Ladestationen, pro WELKW wird eine DC-Ladestation einbezogen</t>
   </si>
   <si>
     <t>In diesem Fall abgeschätzt durch einen durch-schnittlichen Arbeitsweg von 50km (Hin- und Rückweg) bei einem Verbrauch von 0.2 kWh/km</t>
+  </si>
+  <si>
+    <t>Eingabe Pfad</t>
+  </si>
+  <si>
+    <t>Eingabe Seite</t>
+  </si>
+  <si>
+    <t>Tarif Schnellladen extern</t>
+  </si>
+  <si>
+    <t>Eingabe der Betriebskosten als Anteil vom Capex</t>
+  </si>
+  <si>
+    <t>Faktor Vergünstigung Capex</t>
+  </si>
+  <si>
+    <t>SOC-Reserve</t>
+  </si>
+  <si>
+    <t>SOC-Limit: Ruhezeit</t>
+  </si>
+  <si>
+    <t>Maximale Ladeleistung an den internen Ladestationen. Pro ELKW wird eine DC-Ladestation einbezogen.</t>
+  </si>
+  <si>
+    <t>Unter diesem SOC wird unterwegs an einer Raststätte mit Schnellladeleistung 30 Min geladen.</t>
+  </si>
+  <si>
+    <t>SOC-Limit: Laden extern (Raststätte)</t>
+  </si>
+  <si>
+    <t>Falls Reserve vorhanden sein muss und der SOC nicht tiefer sinken darf</t>
+  </si>
+  <si>
+    <t>SOC-Limit: Wechsel extern (Wechselstation)</t>
+  </si>
+  <si>
+    <t>Falls Reserve vorhanden sein muss und der SOC nicht tiefer sinken darf.</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1024,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1293,7 +1292,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1304,7 +1303,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="94.5">
       <c r="A1" s="35" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30">
@@ -1314,22 +1313,22 @@
     </row>
     <row r="3" spans="1:1" ht="30">
       <c r="A3" s="31" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="32" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="34" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B919DAA-B456-4E90-ACBD-2393A67E028E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1373,7 +1372,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>6</v>
@@ -1384,10 +1383,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>6</v>
@@ -1401,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>6</v>
@@ -1412,10 +1411,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>6</v>
@@ -1457,7 +1456,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>6</v>
@@ -1468,10 +1467,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>6</v>
@@ -1491,7 +1490,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="15"/>
@@ -1512,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1526,10 +1525,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>15</v>
@@ -1541,61 +1540,61 @@
     <row r="3" spans="1:5" s="40" customFormat="1">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="40" customFormat="1" ht="60">
       <c r="A4" s="12" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D4" s="41">
         <v>4</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="40" customFormat="1" ht="60">
       <c r="A5" s="55" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D5" s="57">
         <v>4</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="40" customFormat="1" ht="45">
       <c r="A6" s="12" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>15</v>
@@ -1609,10 +1608,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>15</v>
@@ -1632,12 +1631,12 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="D13" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1660,7 +1659,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B2" s="23">
         <v>1</v>
@@ -1744,7 +1743,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B8" s="24">
         <v>0.5</v>
@@ -1837,7 +1836,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1869,10 +1868,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C2" s="30" t="str">
         <f>Input!C5</f>
@@ -1890,7 +1889,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C3" s="30">
         <f>SUM(C4:C10)</f>
@@ -2010,7 +2009,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C10" s="19">
         <v>300</v>
@@ -2027,7 +2026,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>6</v>
@@ -2036,7 +2035,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1" ht="30">
@@ -2044,7 +2043,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C12" s="20">
         <v>0</v>
@@ -2053,7 +2052,7 @@
         <v>74</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="11" customFormat="1">
@@ -2061,7 +2060,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="C13" s="22">
         <v>0.01</v>
@@ -2070,15 +2069,15 @@
         <v>15</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="40" customFormat="1" ht="30">
       <c r="A14" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>6</v>
@@ -2087,15 +2086,15 @@
         <v>15</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="40" customFormat="1" ht="45">
       <c r="A15" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C15" s="45">
         <v>0</v>
@@ -2104,41 +2103,41 @@
         <v>74</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="40" customFormat="1" ht="30">
       <c r="A16" s="12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C16" s="45">
         <v>4.6399999999999997</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="40" customFormat="1" ht="30">
       <c r="A17" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="45">
         <v>70</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2151,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E344E445-8754-4C38-85D0-DF97D6D2A3D7}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -2160,7 +2159,7 @@
     <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="11.5703125" style="1"/>
   </cols>
@@ -2184,10 +2183,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C2" s="30" t="str">
         <f>Input!C9</f>
@@ -2202,10 +2201,10 @@
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1" ht="60">
       <c r="A3" s="12" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C3" s="19">
         <v>3</v>
@@ -2214,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="11" customFormat="1">
@@ -2222,13 +2221,13 @@
         <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="20">
         <v>136</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>58</v>
@@ -2236,10 +2235,10 @@
     </row>
     <row r="5" spans="1:5" s="11" customFormat="1" ht="135">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C5" s="19">
         <v>1</v>
@@ -2248,15 +2247,15 @@
         <v>15</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="40" customFormat="1" ht="45">
       <c r="A6" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C6" s="42">
         <v>0.1</v>
@@ -2265,15 +2264,15 @@
         <v>15</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="40" customFormat="1" ht="45">
       <c r="A7" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C7" s="42">
         <v>1</v>
@@ -2282,15 +2281,15 @@
         <v>15</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="40" customFormat="1">
       <c r="A8" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C8" s="43">
         <v>0.05</v>
@@ -2299,24 +2298,24 @@
         <v>15</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="40" customFormat="1" ht="60">
       <c r="A9" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C9" s="44">
         <v>50</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="40" customFormat="1" ht="60">
@@ -2324,7 +2323,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>6</v>
@@ -2333,7 +2332,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="40" customFormat="1" ht="30">
@@ -2341,7 +2340,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C11" s="45">
         <v>0</v>
@@ -2350,7 +2349,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="40" customFormat="1">
@@ -2358,7 +2357,7 @@
         <v>73</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C12" s="46">
         <v>0.01</v>
@@ -2367,15 +2366,15 @@
         <v>15</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="40" customFormat="1" ht="30">
       <c r="A13" s="12" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C13" s="43">
         <v>0</v>
@@ -2384,7 +2383,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2396,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AEA66F-7008-4689-BB23-F0D0D459035C}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:E10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -2429,10 +2428,10 @@
     </row>
     <row r="2" spans="1:5" s="40" customFormat="1">
       <c r="A2" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="48">
         <f>Input!C6</f>
@@ -2447,27 +2446,27 @@
     </row>
     <row r="3" spans="1:5" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="49">
         <v>42</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="40" customFormat="1" ht="30">
       <c r="A4" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C4" s="50">
         <v>3</v>
@@ -2476,29 +2475,29 @@
         <v>15</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="C5" s="51">
         <v>0.63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="40" customFormat="1" ht="31.5" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>209</v>
@@ -2507,35 +2506,35 @@
         <v>90</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="40" customFormat="1" ht="30">
       <c r="A7" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C7" s="53">
         <v>100</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="40" customFormat="1" ht="30">
       <c r="A8" s="12" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C8" s="54">
         <v>0</v>
@@ -2544,15 +2543,15 @@
         <v>15</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="40" customFormat="1" ht="30">
       <c r="A9" s="12" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C9" s="54">
         <v>0.1</v>
@@ -2561,15 +2560,15 @@
         <v>15</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="40" customFormat="1" ht="30">
       <c r="A10" s="12" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="C10" s="54">
         <v>0.05</v>
@@ -2578,7 +2577,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2591,7 +2590,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -2623,10 +2622,10 @@
     </row>
     <row r="2" spans="1:5" s="11" customFormat="1">
       <c r="A2" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="14">
         <f>Input!C7</f>
@@ -2641,27 +2640,27 @@
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1" ht="30">
       <c r="A3" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="16">
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="11" customFormat="1">
       <c r="A4" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C4" s="15">
         <v>3</v>
@@ -2670,49 +2669,49 @@
         <v>15</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="11" customFormat="1">
       <c r="A5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="C5" s="36">
         <v>0.63</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="11" customFormat="1" ht="45">
       <c r="A6" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C6" s="17">
         <v>90</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="11" customFormat="1" ht="30">
       <c r="A7" s="9" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="C7" s="18">
         <v>0</v>
@@ -2721,15 +2720,15 @@
         <v>15</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="11" customFormat="1" ht="30">
       <c r="A8" s="9" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C8" s="18">
         <v>0.1</v>
@@ -2738,15 +2737,15 @@
         <v>15</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="11" customFormat="1" ht="30">
-      <c r="A9" s="9" t="s">
-        <v>115</v>
+      <c r="A9" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C9" s="18">
         <v>0.1</v>
@@ -2755,12 +2754,12 @@
         <v>15</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2804,7 +2803,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="27" t="str">
         <f>Input!C8</f>
@@ -2819,10 +2818,10 @@
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1">
       <c r="A3" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C3" s="19">
         <v>10</v>
@@ -2831,12 +2830,12 @@
         <v>15</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="11" customFormat="1">
       <c r="A4" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>15</v>
@@ -2845,52 +2844,52 @@
         <v>68</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="11" customFormat="1" ht="45">
       <c r="A5" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="11" customFormat="1" ht="30">
       <c r="A6" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C6" s="29">
         <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="11" customFormat="1" ht="30">
       <c r="A7" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C7" s="21">
         <v>0.25</v>
@@ -2899,15 +2898,15 @@
         <v>15</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="11" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C8" s="21">
         <v>0.5</v>
@@ -2916,7 +2915,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
